--- a/src/templates/Cotton_Template.xlsx
+++ b/src/templates/Cotton_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA9B84-4905-4912-BA60-254DE983A123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D189AD3D-3F85-49D1-A2AA-AFD9FDB2DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,10 +282,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,6 +297,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -532,18 +532,21 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
     <col min="15" max="15" width="30" style="2" customWidth="1"/>
     <col min="16" max="16384" width="12.5703125" style="2"/>
   </cols>
@@ -552,16 +555,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -571,16 +574,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -590,16 +593,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -611,14 +614,14 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -628,7 +631,7 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -652,22 +655,22 @@
       <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -692,7 +695,7 @@
       <c r="A7" s="9">
         <v>44553</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -710,28 +713,28 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>30000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>500</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>44969</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>2000</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1348,7 +1351,7 @@
       <c r="O43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nNVf768fsN2duylITjkmZZRvZp0WxsXWGE/s7+hNOyA3JQ2BV8180jBfBnBgwkD6+kdrLhs4uOr3axwoUnoECQ==" saltValue="S1dxiNgATDpXYZZj7uKSXw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>

--- a/src/templates/Cotton_Template.xlsx
+++ b/src/templates/Cotton_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D189AD3D-3F85-49D1-A2AA-AFD9FDB2DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FC529-49D1-40EB-84EB-15CA53967757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1191" yWindow="3429" windowWidth="31723" windowHeight="14365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Regional Office _____________</t>
   </si>
   <si>
-    <t>Regional Office 4</t>
-  </si>
-  <si>
     <t>Oriental Mindoro</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Cotton Upload Form</t>
+  </si>
+  <si>
+    <t>Region 4</t>
   </si>
 </sst>
 </file>
@@ -532,26 +532,26 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.84375" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.84375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.53515625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="20.53515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.15234375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.53515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="30" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5703125" style="2"/>
+    <col min="16" max="16384" width="12.53515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -570,7 +570,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -589,7 +589,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -608,9 +608,9 @@
       <c r="N3" s="7"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="1"/>
@@ -627,12 +627,12 @@
       <c r="N4" s="7"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -650,31 +650,31 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -691,33 +691,33 @@
       <c r="N6" s="4"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>44553</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="J7" s="14">
         <v>30000</v>
@@ -732,13 +732,13 @@
         <v>2000</v>
       </c>
       <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -755,7 +755,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -772,7 +772,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -789,7 +789,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -806,7 +806,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -823,7 +823,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -840,7 +840,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -857,7 +857,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -874,7 +874,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -891,7 +891,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -908,7 +908,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -925,7 +925,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -942,7 +942,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -959,7 +959,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -976,7 +976,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -993,7 +993,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1010,7 +1010,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1027,7 +1027,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1044,7 +1044,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1061,7 +1061,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1078,7 +1078,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1095,7 +1095,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1112,7 +1112,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1129,7 +1129,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1146,7 +1146,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1163,7 +1163,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1180,7 +1180,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1197,7 +1197,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1214,7 +1214,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1231,7 +1231,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1248,7 +1248,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1265,7 +1265,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1282,7 +1282,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1299,7 +1299,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1316,7 +1316,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1333,7 +1333,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>

--- a/src/templates/Cotton_Template.xlsx
+++ b/src/templates/Cotton_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E9674-FFAF-45C8-9A48-67EB80BBF407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70EDA00-972F-4BD5-A096-73A0CE375200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Region</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Matthew at Ray buang</t>
-  </si>
-  <si>
     <t>Catanduanes</t>
   </si>
   <si>
@@ -117,7 +114,16 @@
     <t>Area Planted (ha)</t>
   </si>
   <si>
-    <t>Region 4</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Regional Office 4</t>
+  </si>
+  <si>
+    <t>Matthew Romero</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -544,16 +550,16 @@
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
     <col min="3" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31" style="2" customWidth="1"/>
-    <col min="11" max="14" width="20.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="12.5703125" style="2"/>
+    <col min="7" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="12" width="31" style="2" customWidth="1"/>
+    <col min="13" max="16" width="20.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="30" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -567,12 +573,14 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -586,12 +594,14 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -605,14 +615,16 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="1"/>
@@ -624,12 +636,14 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -652,31 +666,37 @@
         <v>3</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -686,25 +706,27 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>45283</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>11</v>
@@ -713,34 +735,40 @@
         <v>10</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16">
+        <v>44969</v>
+      </c>
+      <c r="I7" s="14">
+        <v>28</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="15">
+      <c r="L7" s="15">
         <v>30000</v>
       </c>
-      <c r="K7" s="15">
+      <c r="M7" s="15">
         <v>500</v>
       </c>
-      <c r="L7" s="16">
+      <c r="N7" s="16">
         <v>44969</v>
       </c>
-      <c r="M7" s="15">
+      <c r="O7" s="15">
         <v>2000</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="Q7" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -756,8 +784,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -773,8 +803,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -790,8 +822,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -807,8 +841,10 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -824,8 +860,10 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -841,8 +879,10 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -858,8 +898,10 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -875,8 +917,10 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -886,14 +930,16 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -903,14 +949,16 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -920,14 +968,16 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -937,14 +987,16 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -960,8 +1012,10 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -977,8 +1031,10 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -994,8 +1050,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1011,8 +1069,10 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1028,8 +1088,10 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1045,8 +1107,10 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1062,8 +1126,10 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1079,8 +1145,10 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1096,8 +1164,10 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1113,8 +1183,10 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1130,8 +1202,10 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1147,8 +1221,10 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1164,8 +1240,10 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1181,8 +1259,10 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1198,8 +1278,10 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1215,8 +1297,10 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1232,8 +1316,10 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1249,8 +1335,10 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1266,8 +1354,10 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1283,8 +1373,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1300,8 +1392,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1317,8 +1411,10 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1334,8 +1430,10 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1351,14 +1449,16 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5jJRk9YI0MwqdcyhANPswpaU4L3CKv/yRK0OOoKYMjVdL9HK1HP3qX0dVQoBr9P5L6rW54Ni7rNsVZIqgKHqhQ==" saltValue="YGiBcQ0fsQbWhs5KfppUqg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EZzk1lx5FLNbHcXtQC8tCWDcT44y8hpttHQ3kMOELpkC3/H5nydxC4GLOKQi755h3MACZgZe9I225znPoveehw==" saltValue="SMRcJ3ebKEl1fj4ukmbvoQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
